--- a/railway/org.xlsx
+++ b/railway/org.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24560" windowHeight="34280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14680" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -352,434 +352,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>shang'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>sang'rao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高铁站</t>
-    <rPh sb="0" eb="1">
-      <t>ymqr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>uh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到发线</t>
-    <rPh sb="0" eb="1">
-      <t>gc</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>v</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京南</t>
-    <rPh sb="0" eb="1">
-      <t>uxyi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津西</t>
-    <rPh sb="0" eb="1">
-      <t>gdiv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆西</t>
-    <rPh sb="0" eb="1">
-      <t>tgyd</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原南</t>
-    <rPh sb="0" eb="1">
-      <t>dydr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州东</t>
-    <rPh sb="0" eb="1">
-      <t>udyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈阳南</t>
-    <rPh sb="0" eb="1">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连北</t>
-    <rPh sb="0" eb="1">
-      <t>ddlp</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈尔滨西</t>
-    <rPh sb="0" eb="1">
-      <t>kqip</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京南</t>
-    <rPh sb="0" eb="1">
-      <t>fmyi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐州东</t>
-    <rPh sb="0" eb="1">
-      <t>twyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合肥南</t>
-    <rPh sb="0" eb="1">
-      <t>wgec</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州东</t>
-    <rPh sb="0" eb="1">
-      <t>syyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙南</t>
-    <rPh sb="0" eb="1">
-      <t>taii</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州南</t>
-    <rPh sb="0" eb="1">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳北</t>
-    <rPh sb="0" eb="1">
-      <t>ipfk</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山西</t>
-    <rPh sb="0" eb="1">
-      <t>wxmm</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南宁东</t>
-    <rPh sb="0" eb="1">
-      <t>fmps</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌西</t>
-    <rPh sb="0" eb="1">
-      <t>fmjj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都东</t>
-    <rPh sb="0" eb="1">
-      <t>dnft</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵阳北</t>
-    <rPh sb="0" eb="1">
-      <t>khbj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆明南</t>
-    <rPh sb="0" eb="1">
-      <t>jxje</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安北</t>
-    <rPh sb="0" eb="1">
-      <t>sgpv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州西</t>
-    <rPh sb="0" eb="1">
-      <t>ufyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常平</t>
-    <rPh sb="0" eb="1">
-      <t>ipgu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐山</t>
-    <rPh sb="0" eb="1">
-      <t>yvhk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>mmm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>呼和浩特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>fq</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛北</t>
-    <rPh sb="0" eb="1">
-      <t>geqy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟台南</t>
-    <rPh sb="0" eb="1">
-      <t>olck</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州南</t>
-    <rPh sb="0" eb="1">
-      <t>pyyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厦门北</t>
-    <rPh sb="0" eb="1">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉州</t>
-    <rPh sb="0" eb="1">
-      <t>quan'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼和浩特东</t>
-    <rPh sb="0" eb="1">
-      <t>ktu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tkg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>itfk</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>trf</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海口东</t>
-    <rPh sb="0" eb="1">
-      <t>itkk</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>umrg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>h</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qna</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南西</t>
-    <rPh sb="0" eb="1">
-      <t>iyfm</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停靠车次</t>
-    <rPh sb="0" eb="1">
-      <t>wyp</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lguq</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积
-(万平方米)</t>
-    <rPh sb="0" eb="1">
-      <t>vfta</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dmtk</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yy</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>oy</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -789,70 +362,6 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>wv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀化</t>
-    <rPh sb="0" eb="1">
-      <t>ngwx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀化南</t>
-    <rPh sb="0" eb="1">
-      <t>ngwx</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌埠</t>
-    <rPh sb="0" eb="1">
-      <t>ben'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌埠南</t>
-    <rPh sb="0" eb="1">
-      <t>ben'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂林</t>
-    <rPh sb="0" eb="1">
-      <t>sfss</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂林北</t>
-    <rPh sb="0" eb="1">
-      <t>sfss</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海虹桥</t>
-    <rPh sb="0" eb="1">
-      <t>h</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jast</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1378,6 +887,212 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>nnk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁一院</t>
+    <rPh sb="0" eb="1">
+      <t>qrw</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bpf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁四院</t>
+    <rPh sb="0" eb="1">
+      <t>qr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bpf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁五院</t>
+    <rPh sb="0" eb="1">
+      <t>qr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bpf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海院</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bpf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南交通大学1</t>
+    <rPh sb="0" eb="1">
+      <t>sgfm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uqce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ddip</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连交通大学6</t>
+    <rPh sb="0" eb="1">
+      <t>ddlp</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uqce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ddip</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京交通大学2</t>
+    <rPh sb="0" eb="1">
+      <t>uxyi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uqce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ddip</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州交通大学3</t>
+    <rPh sb="0" eb="1">
+      <t>ufyt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uqce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ddip</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄铁道学院7</t>
+    <rPh sb="0" eb="1">
+      <t>dpyf</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qrut</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ipbp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原长沙铁道学院4</t>
+    <rPh sb="0" eb="1">
+      <t>dr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>taii</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qrut</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ipbp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原上海铁道学院5</t>
+    <rPh sb="0" eb="1">
+      <t>dr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qr</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>uthp</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ipbp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原南京铁道医学院9</t>
+    <rPh sb="0" eb="1">
+      <t>dr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fmyi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qrut</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>aibp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东交通大学8</t>
+    <rPh sb="0" eb="1">
+      <t>wxf</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>uqce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ddip</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原苏州铁道师院10</t>
+    <rPh sb="0" eb="1">
+      <t>dri</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>alyt</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qrut</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jgm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bpf</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,7 +1104,7 @@
 中铁十六局
 中铁十九局
 中铁二十二局
-铁建电气化局</t>
+中铁建电气化局</t>
     <rPh sb="0" eb="1">
       <t>k</t>
     </rPh>
@@ -1490,149 +1205,269 @@
       <t>nnk</t>
     </rPh>
     <rPh sb="42" eb="43">
+      <t>k</t>
+    </rPh>
+    <rPh sb="43" eb="44">
       <t>qrw</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="44" eb="45">
       <t>vfhp</t>
     </rPh>
-    <rPh sb="44" eb="45">
+    <rPh sb="45" eb="46">
       <t>jn</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="46" eb="47">
       <t>rnb</t>
     </rPh>
-    <rPh sb="46" eb="47">
+    <rPh sb="47" eb="48">
       <t>wx</t>
     </rPh>
-    <rPh sb="47" eb="48">
+    <rPh sb="48" eb="49">
       <t>nnk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁一院</t>
-    <rPh sb="0" eb="1">
-      <t>qrw</t>
+    <t>含客运段
+(2分)</t>
+    <rPh sb="0" eb="1">
+      <t>wynk</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>g</t>
+      <t>ptfc</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wdm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客运段
+(5分)</t>
+    <rPh sb="0" eb="1">
+      <t>ptfc</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wdm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基建局
+(5分)</t>
+    <rPh sb="0" eb="1">
+      <t>ad</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vfhp</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nnk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计院
+(5分)</t>
+    <rPh sb="0" eb="1">
+      <t>ymy</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bpf</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁四院</t>
-    <rPh sb="0" eb="1">
-      <t>qr</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lh</t>
+    <rPh sb="6" eb="7">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路局
+(10分)</t>
+    <rPh sb="0" eb="1">
+      <t>qrkh</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>bpf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁五院</t>
-    <rPh sb="0" eb="1">
-      <t>qr</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gg</t>
+      <t>nnk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路院校
+(5-10分)</t>
+    <rPh sb="0" eb="1">
+      <t>qrkh</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>bpf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海院</t>
+      <t>bpa</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suq</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京, 天津
+石家庄</t>
+    <rPh sb="0" eb="1">
+      <t>uxyi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gdiv</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dpyf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海, 南京
+杭州, 合肥</t>
     <rPh sb="0" eb="1">
       <t>h</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>itx</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>bpf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州交通大学2</t>
-    <rPh sb="0" eb="1">
-      <t>ufyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>uqce</t>
-    </rPh>
     <rPh sb="4" eb="5">
-      <t>ddip</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西南交通大学1</t>
-    <rPh sb="0" eb="1">
-      <t>sgfm</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>uqce</t>
+      <t>fmyi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>syyt</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wgec</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <rPh sb="0" eb="1">
+      <t>udb</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ytyh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳, 锦州
+吉林, 长春
+大连</t>
+    <rPh sb="0" eb="1">
+      <t>ipbj</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ddip</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京理工大学3</t>
-    <rPh sb="0" eb="1">
-      <t>fmyi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gjaa</t>
+      <t>qryt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fkss</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tadw</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ddlp</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨
+牡丹江
+齐齐哈尔</t>
+    <rPh sb="0" eb="1">
+      <t>kqip</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ddip</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙理工大学4</t>
-    <rPh sb="0" eb="1">
+      <t>m'd'jiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yykq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包头</t>
+    <rPh sb="0" eb="1">
+      <t>qn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>udi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南, 青岛</t>
+    <rPh sb="0" eb="1">
+      <t>iyf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geqy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉, 襄阳</t>
+    <rPh sb="0" eb="1">
+      <t>gaic</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ykbj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州, 长沙
+广九</t>
+    <rPh sb="0" eb="1">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>taii</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>gjaa</t>
+    <rPh sb="7" eb="8">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>vtia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌, 福州</t>
+    <rPh sb="0" eb="1">
+      <t>fmjj</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ddip</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州大学5</t>
-    <rPh sb="0" eb="1">
-      <t>udyt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ddip</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大连交通大学6</t>
-    <rPh sb="0" eb="1">
-      <t>ddlp</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>uqce</t>
+      <t>pyyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都, 重庆
+贵阳</t>
+    <rPh sb="0" eb="1">
+      <t>dnft</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ddip</t>
+      <t>tgyd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>khbj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1723,7 +1558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1747,6 +1582,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2030,18 +1877,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2050,22 +1897,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -2073,42 +1920,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2117,13 +1968,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -2134,7 +1985,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2147,11 +1998,13 @@
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2169,16 +2022,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -2188,37 +2041,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2230,12 +2081,12 @@
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,24 +2096,24 @@
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2270,13 +2121,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
@@ -2290,12 +2141,12 @@
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2318,7 +2169,9 @@
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -2358,16 +2211,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2379,7 +2232,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2403,10 +2256,10 @@
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2418,7 +2271,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2442,7 +2295,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2475,19 +2328,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -2498,12 +2351,12 @@
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.2">
@@ -2511,16 +2364,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2563,13 +2416,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2580,39 +2433,41 @@
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="54" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2622,10 +2477,10 @@
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2635,13 +2490,13 @@
         <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2674,19 +2529,19 @@
         <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="G43" s="4"/>
     </row>
@@ -2695,20 +2550,20 @@
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2718,7 +2573,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2729,13 +2584,13 @@
         <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2746,13 +2601,13 @@
         <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2767,1113 +2622,936 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4">
-        <v>799</v>
-      </c>
-      <c r="E2" s="4">
-        <v>61.5</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8">
+        <v>40</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F33" si="0">C2+D2/10+E2</f>
-        <v>169.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4">
+        <f>B2+C2+D2+E2+F2+G2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4">
-        <v>550</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45.8</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>15</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" si="0"/>
-        <v>128.80000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <f>B3+C3+D3+E3+F3+G3</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="4">
+        <f>B4+C4+D4+E4+F4+G4</f>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <f>B5+C5+D5+E5+F5+G5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <f>B6+C6+D6+E6+F6+G6</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <f>B7+C7+D7+E7+F7+G7</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <f>B8+C8+D8+E8+F8+G8</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
-        <v>535</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H9" s="4">
+        <f>B9+C9+D9+E9+F9+G9</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <f>B10+C10+D10+E10+F10+G10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <f>B11+C11+D11+E11+F11+G11</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4">
+        <f>B12+C12+D12+E12+F12+G12</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <f>B13+C13+D13+E13+F13+G13</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <f>B14+C14+D14+E14+F14+G14</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <f>B15+C15+D15+E15+F15+G15</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f>B16+C16+D16+E16+F16+G16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>B17+C17+D17+E17+F17+G17</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <f>B18+C18+D18+E18+F18+G18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <f>B19+C19+D19+E19+F19+G19</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <f>B20+C20+D20+E20+F20+G20</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <f>B21+C21+D21+E21+F21+G21</f>
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
-        <v>543</v>
-      </c>
-      <c r="E5" s="4">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>118.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <f>B22+C22+D22+E22+F22+G22</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4">
-        <v>440</v>
-      </c>
-      <c r="E6" s="4">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4">
-        <v>394</v>
-      </c>
-      <c r="E7" s="4">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>112.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4">
-        <v>482</v>
-      </c>
-      <c r="E8" s="4">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>104.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <v>339</v>
-      </c>
-      <c r="E9" s="4">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>101.60000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="4">
+        <f>B23+C23+D23+E23+F23+G23</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H24" s="4">
+        <f>B24+C24+D24+E24+F24+G24</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
-        <v>260</v>
-      </c>
-      <c r="E10" s="4">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4">
-        <v>436</v>
-      </c>
-      <c r="E11" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>99.399999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>386</v>
-      </c>
-      <c r="E12" s="4">
-        <v>37</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>450</v>
-      </c>
-      <c r="E13" s="4">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4">
-        <v>273</v>
-      </c>
-      <c r="E14" s="4">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
-        <v>192</v>
-      </c>
-      <c r="E15" s="4">
-        <v>33.5</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4">
-        <v>335</v>
-      </c>
-      <c r="E16" s="4">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <f>B25+C25+D25+E25+F25+G25</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="4">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4">
-        <v>201</v>
-      </c>
-      <c r="E18" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="4">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4">
-        <v>255</v>
-      </c>
-      <c r="E19" s="4">
-        <v>25.9</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="4">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <v>164</v>
-      </c>
-      <c r="E20" s="4">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4">
-        <v>193</v>
-      </c>
-      <c r="E21" s="4">
-        <v>23</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>68.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4">
-        <v>313</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f>B26+C26+D26+E26+F26+G26</f>
         <v>10</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>68.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4">
-        <v>362</v>
-      </c>
-      <c r="E23" s="4">
-        <v>15.7</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4">
-        <v>164</v>
-      </c>
-      <c r="E24" s="4">
-        <v>27</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="4">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4">
-        <v>207</v>
-      </c>
-      <c r="E25" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="4">
-        <v>28</v>
-      </c>
-      <c r="D26" s="4">
-        <v>293</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4">
-        <v>160</v>
-      </c>
-      <c r="E27" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
+        <f>B27+C27+D27+E27+F27+G27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <f>B28+C28+D28+E28+F28+G28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <f>B29+C29+D29+E29+F29+G29</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <f>B30+C30+D30+E30+F30+G30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <f>B31+C31+D31+E31+F31+G31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <f>B32+C32+D32+E32+F32+G32</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="4">
-        <v>155</v>
-      </c>
-      <c r="E28" s="4">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <f>B33+C33+D33+E33+F33+G33</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <f>B34+C34+D34+E34+F34+G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <f>B35+C35+D35+E35+F35+G35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <f>B36+C36+D36+E36+F36+G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <f>B37+C37+D37+E37+F37+G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <f>B38+C38+D38+E38+F38+G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <f>B39+C39+D39+E39+F39+G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <f>B40+C40+D40+E40+F40+G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="4">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4">
-        <v>245</v>
-      </c>
-      <c r="E29" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <f>B41+C41+D41+E41+F41+G41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
+        <f>B42+C42+D42+E42+F42+G42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <f>B43+C43+D43+E43+F43+G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4">
-        <v>200</v>
-      </c>
-      <c r="E30" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4">
-        <v>143</v>
-      </c>
-      <c r="E31" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="4">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4">
-        <v>141</v>
-      </c>
-      <c r="E32" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="0"/>
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="4">
-        <v>16</v>
-      </c>
-      <c r="D33" s="4">
-        <v>226</v>
-      </c>
-      <c r="E33" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="0"/>
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
-        <v>268</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" ref="F34:F52" si="1">C34+D34/10+E34</f>
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4">
-        <v>22</v>
-      </c>
-      <c r="D35" s="4">
-        <v>157</v>
-      </c>
-      <c r="E35" s="4">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="1"/>
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="4">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4">
-        <v>274</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="1"/>
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="4">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>286</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="1"/>
-        <v>43.800000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="4">
-        <v>18</v>
-      </c>
-      <c r="D38" s="4">
-        <v>145</v>
-      </c>
-      <c r="E38" s="4">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="4">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4">
-        <v>112</v>
-      </c>
-      <c r="E39" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="1"/>
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="4">
-        <v>16</v>
-      </c>
-      <c r="D40" s="4">
-        <v>204</v>
-      </c>
-      <c r="E40" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="1"/>
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4">
-        <v>18</v>
-      </c>
-      <c r="D41" s="4">
-        <v>130</v>
-      </c>
-      <c r="E41" s="4">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="4">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4">
-        <v>126</v>
-      </c>
-      <c r="E42" s="4">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="1"/>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" s="4">
-        <v>198</v>
-      </c>
-      <c r="E43" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="1"/>
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <f>B44+C44+D44+E44+F44+G44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="4">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4">
-        <v>204</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="4">
-        <v>20</v>
-      </c>
-      <c r="D45" s="4">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="1"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
+        <f>B45+C45+D45+E45+F45+G45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="4">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4">
-        <v>96</v>
-      </c>
-      <c r="E46" s="4">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="1"/>
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <f>B46+C46+D46+E46+F46+G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4">
-        <v>157</v>
-      </c>
-      <c r="E47" s="4">
-        <v>6</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="1"/>
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="4">
-        <v>16</v>
-      </c>
-      <c r="D48" s="4">
-        <v>46</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="1"/>
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="4">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4">
-        <v>74</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="4">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4">
-        <v>60</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
+        <f>B47+C47+D47+E47+F47+G47</f>
         <v>0</v>
       </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F53">
-    <sortCondition descending="1" ref="F1"/>
+  <sortState ref="A2:H47">
+    <sortCondition descending="1" ref="H1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/railway/org.xlsx
+++ b/railway/org.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14680" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="21260" yWindow="440" windowWidth="17140" windowHeight="22840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -1476,6 +1476,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1558,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1596,6 +1599,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1875,9 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2622,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2635,10 +2644,11 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2663,8 +2673,11 @@
       <c r="H1" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I1" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2687,11 +2700,15 @@
         <v>9</v>
       </c>
       <c r="H2" s="4">
-        <f>B2+C2+D2+E2+F2+G2</f>
+        <f t="shared" ref="H2:H47" si="0">B2+C2+D2+E2+F2+G2</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I2" s="14">
+        <f>H2/0.75</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2714,11 +2731,15 @@
         <v>10</v>
       </c>
       <c r="H3" s="4">
-        <f>B3+C3+D3+E3+F3+G3</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I47" si="1">H3/0.75</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2741,11 +2762,15 @@
         <v>7.5</v>
       </c>
       <c r="H4" s="4">
-        <f>B4+C4+D4+E4+F4+G4</f>
+        <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I4" s="14">
+        <f t="shared" si="1"/>
+        <v>67.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2766,11 +2791,15 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f>B5+C5+D5+E5+F5+G5</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I5" s="14">
+        <f t="shared" si="1"/>
+        <v>45.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2789,11 +2818,15 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <f>B6+C6+D6+E6+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I6" s="14">
+        <f t="shared" si="1"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2814,11 +2847,15 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <f>B7+C7+D7+E7+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I7" s="14">
+        <f t="shared" si="1"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2837,11 +2874,15 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <f>B8+C8+D8+E8+F8+G8</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
+        <v>41.333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -2862,11 +2903,15 @@
         <v>8.5</v>
       </c>
       <c r="H9" s="4">
-        <f>B9+C9+D9+E9+F9+G9</f>
+        <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>40.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2885,11 +2930,15 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <f>B10+C10+D10+E10+F10+G10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I10" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2908,11 +2957,15 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4">
-        <f>B11+C11+D11+E11+F11+G11</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I11" s="14">
+        <f t="shared" si="1"/>
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2931,11 +2984,15 @@
         <v>6</v>
       </c>
       <c r="H12" s="4">
-        <f>B12+C12+D12+E12+F12+G12</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -2952,11 +3009,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <f>B13+C13+D13+E13+F13+G13</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2975,11 +3036,15 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
-        <f>B14+C14+D14+E14+F14+G14</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>29.333333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2996,11 +3061,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
-        <f>B15+C15+D15+E15+F15+G15</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -3017,11 +3086,15 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f>B16+C16+D16+E16+F16+G16</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -3038,11 +3111,15 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
-        <f>B17+C17+D17+E17+F17+G17</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -3059,11 +3136,15 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
-        <f>B18+C18+D18+E18+F18+G18</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -3080,11 +3161,15 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
-        <f>B19+C19+D19+E19+F19+G19</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>22.666666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -3099,11 +3184,15 @@
         <v>8</v>
       </c>
       <c r="H20" s="4">
-        <f>B20+C20+D20+E20+F20+G20</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3118,11 +3207,15 @@
         <v>7</v>
       </c>
       <c r="H21" s="4">
-        <f>B21+C21+D21+E21+F21+G21</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -3137,11 +3230,15 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4">
-        <f>B22+C22+D22+E22+F22+G22</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -3156,11 +3253,15 @@
         <v>6.5</v>
       </c>
       <c r="H23" s="4">
-        <f>B23+C23+D23+E23+F23+G23</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -3175,11 +3276,15 @@
         <v>5.5</v>
       </c>
       <c r="H24" s="4">
-        <f>B24+C24+D24+E24+F24+G24</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -3194,11 +3299,15 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
-        <f>B25+C25+D25+E25+F25+G25</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -3213,11 +3322,15 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4">
-        <f>B26+C26+D26+E26+F26+G26</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
@@ -3230,11 +3343,15 @@
         <v>5</v>
       </c>
       <c r="H27" s="4">
-        <f>B27+C27+D27+E27+F27+G27</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -3247,11 +3364,15 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4">
-        <f>B28+C28+D28+E28+F28+G28</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -3264,11 +3385,15 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <f>B29+C29+D29+E29+F29+G29</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -3281,11 +3406,15 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4">
-        <f>B30+C30+D30+E30+F30+G30</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -3298,11 +3427,15 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
-        <f>B31+C31+D31+E31+F31+G31</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -3315,11 +3448,15 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4">
-        <f>B32+C32+D32+E32+F32+G32</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -3332,11 +3469,15 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4">
-        <f>B33+C33+D33+E33+F33+G33</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -3347,11 +3488,15 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4">
-        <f>B34+C34+D34+E34+F34+G34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I34" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -3362,11 +3507,15 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4">
-        <f>B35+C35+D35+E35+F35+G35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I35" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
@@ -3377,11 +3526,15 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4">
-        <f>B36+C36+D36+E36+F36+G36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I36" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
@@ -3392,11 +3545,15 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4">
-        <f>B37+C37+D37+E37+F37+G37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I37" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
@@ -3407,11 +3564,15 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4">
-        <f>B38+C38+D38+E38+F38+G38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I38" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
@@ -3422,11 +3583,15 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4">
-        <f>B39+C39+D39+E39+F39+G39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I39" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>25</v>
       </c>
@@ -3437,11 +3602,15 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4">
-        <f>B40+C40+D40+E40+F40+G40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I40" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
@@ -3452,11 +3621,15 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
-        <f>B41+C41+D41+E41+F41+G41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I41" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -3467,11 +3640,15 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4">
-        <f>B42+C42+D42+E42+F42+G42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I42" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
@@ -3482,11 +3659,15 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
-        <f>B43+C43+D43+E43+F43+G43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I43" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -3497,11 +3678,15 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4">
-        <f>B44+C44+D44+E44+F44+G44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I44" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -3512,11 +3697,15 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
-        <f>B45+C45+D45+E45+F45+G45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I45" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
@@ -3527,11 +3716,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4">
-        <f>B46+C46+D46+E46+F46+G46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I46" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -3542,12 +3735,16 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4">
-        <f>B47+C47+D47+E47+F47+G47</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I47" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H47">
+  <sortState ref="A2:I47">
     <sortCondition descending="1" ref="H1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
